--- a/Proyectos/2016/7/P1798 - RNCCON,RNCFAC,Elvira Aguilera_AG/Compras/P1798 - RNCCON,RNCFAC,Elvira Aguilera_AG - copia.xlsx
+++ b/Proyectos/2016/7/P1798 - RNCCON,RNCFAC,Elvira Aguilera_AG/Compras/P1798 - RNCCON,RNCFAC,Elvira Aguilera_AG - copia.xlsx
@@ -2933,234 +2933,117 @@
     <xf numFmtId="0" fontId="92" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3201,11 +3084,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3222,7 +3108,7 @@
     <xf numFmtId="0" fontId="94" fillId="5" borderId="34" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3237,6 +3123,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3258,105 +3153,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="68" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3753,32 +3753,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="139"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
+      <c r="J1" s="175"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="175"/>
+      <c r="M1" s="175"/>
+      <c r="N1" s="175"/>
+      <c r="O1" s="175"/>
+      <c r="P1" s="175"/>
+      <c r="Q1" s="175"/>
+      <c r="R1" s="175"/>
+      <c r="S1" s="175"/>
+      <c r="T1" s="175"/>
+      <c r="U1" s="176"/>
     </row>
     <row r="2" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="140"/>
+      <c r="A2" s="177"/>
       <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
@@ -3791,21 +3791,21 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="208"/>
+      <c r="M2" s="209"/>
+      <c r="N2" s="209"/>
+      <c r="O2" s="209"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="1:21" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -3818,297 +3818,297 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
-      <c r="L3" s="103" t="s">
+      <c r="L3" s="211" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="208"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="211"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="211"/>
+      <c r="T3" s="212"/>
+      <c r="U3" s="112"/>
     </row>
     <row r="4" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="177"/>
+      <c r="B4" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="208"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
+      <c r="J4" s="206"/>
+      <c r="K4" s="206"/>
+      <c r="L4" s="206"/>
+      <c r="M4" s="206"/>
+      <c r="N4" s="206"/>
+      <c r="O4" s="206"/>
+      <c r="P4" s="206"/>
+      <c r="Q4" s="206"/>
+      <c r="R4" s="206"/>
+      <c r="S4" s="206"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="112"/>
     </row>
     <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="219"/>
-      <c r="J5" s="219"/>
-      <c r="K5" s="219"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="219"/>
-      <c r="N5" s="219"/>
-      <c r="O5" s="219"/>
-      <c r="P5" s="219"/>
-      <c r="Q5" s="219"/>
-      <c r="R5" s="177" t="s">
+      <c r="A5" s="177"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="178"/>
+      <c r="S5" s="140"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="208"/>
+      <c r="U5" s="112"/>
     </row>
     <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="140"/>
-      <c r="B6" s="212" t="s">
+      <c r="A6" s="177"/>
+      <c r="B6" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="213"/>
-      <c r="D6" s="238" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="238"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="239"/>
-      <c r="I6" s="239"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="239"/>
-      <c r="M6" s="239"/>
-      <c r="N6" s="239"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="239"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
       <c r="R6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="234" t="s">
+      <c r="S6" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="T6" s="235"/>
-      <c r="U6" s="208"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="112"/>
     </row>
     <row r="7" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="140"/>
-      <c r="B7" s="212" t="s">
+      <c r="A7" s="177"/>
+      <c r="B7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="189" t="s">
+      <c r="C7" s="117"/>
+      <c r="D7" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="151"/>
+      <c r="P7" s="151"/>
+      <c r="Q7" s="151"/>
       <c r="R7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="236" t="s">
+      <c r="S7" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="237"/>
-      <c r="U7" s="208"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="112"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="140"/>
-      <c r="B8" s="212" t="s">
+      <c r="A8" s="177"/>
+      <c r="B8" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="235" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
       <c r="J8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="195" t="s">
+      <c r="K8" s="158" t="s">
         <v>104</v>
       </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="208"/>
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="112"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="212" t="s">
+      <c r="A9" s="177"/>
+      <c r="B9" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="189" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="118" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="190"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="214"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
       <c r="Q9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R9" s="215" t="s">
+      <c r="R9" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="S9" s="216"/>
-      <c r="T9" s="217"/>
-      <c r="U9" s="208"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="112"/>
     </row>
     <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="212" t="s">
+      <c r="A10" s="177"/>
+      <c r="B10" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="130" t="s">
+      <c r="C10" s="117"/>
+      <c r="D10" s="236" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
       <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="198" t="s">
+      <c r="K10" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="199"/>
-      <c r="M10" s="199"/>
-      <c r="N10" s="199"/>
-      <c r="O10" s="199"/>
-      <c r="P10" s="199"/>
-      <c r="Q10" s="199"/>
-      <c r="R10" s="199"/>
-      <c r="S10" s="199"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="208"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="112"/>
     </row>
     <row r="11" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="228" t="s">
+      <c r="A11" s="177"/>
+      <c r="B11" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="229"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="134" t="s">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="240" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="240" t="s">
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="241"/>
+      <c r="K11" s="241"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="241"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="242"/>
+      <c r="P11" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="241"/>
-      <c r="R11" s="242"/>
-      <c r="S11" s="224" t="s">
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="T11" s="225"/>
-      <c r="U11" s="208"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="112"/>
     </row>
     <row r="12" spans="1:21" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="230" t="s">
+      <c r="A12" s="177"/>
+      <c r="B12" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="231"/>
-      <c r="D12" s="232"/>
-      <c r="E12" s="232"/>
-      <c r="F12" s="232"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="232"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="232"/>
-      <c r="K12" s="232"/>
-      <c r="L12" s="232"/>
-      <c r="M12" s="232"/>
-      <c r="N12" s="232"/>
-      <c r="O12" s="232"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="208"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="112"/>
     </row>
     <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="140"/>
-      <c r="B13" s="115" t="s">
+      <c r="A13" s="177"/>
+      <c r="B13" s="223" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
       <c r="O13" s="75" t="s">
         <v>0</v>
       </c>
@@ -4116,165 +4116,165 @@
         <v>0</v>
       </c>
       <c r="Q13" s="76"/>
-      <c r="R13" s="183" t="s">
+      <c r="R13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="183"/>
+      <c r="S13" s="145"/>
       <c r="T13" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="U13" s="208"/>
+      <c r="U13" s="112"/>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="186" t="s">
+      <c r="A14" s="177"/>
+      <c r="B14" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="220" t="s">
+      <c r="C14" s="149"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="220"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="220"/>
-      <c r="I14" s="220"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="221"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="128"/>
+      <c r="P14" s="128"/>
+      <c r="Q14" s="128"/>
       <c r="R14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="184">
+      <c r="S14" s="146">
         <f ca="1">TODAY()</f>
-        <v>42578</v>
-      </c>
-      <c r="T14" s="185"/>
-      <c r="U14" s="208"/>
+        <v>42585</v>
+      </c>
+      <c r="T14" s="147"/>
+      <c r="U14" s="112"/>
     </row>
     <row r="15" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="140"/>
-      <c r="B15" s="179" t="s">
+      <c r="A15" s="177"/>
+      <c r="B15" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="181"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="181"/>
-      <c r="S15" s="181"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="208"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="112"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="144" t="s">
+      <c r="A16" s="177"/>
+      <c r="B16" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="146"/>
-      <c r="U16" s="208"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="112"/>
     </row>
     <row r="17" spans="1:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="147" t="s">
+      <c r="A17" s="177"/>
+      <c r="B17" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="148"/>
-      <c r="N17" s="148"/>
-      <c r="O17" s="148"/>
-      <c r="P17" s="148"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="149"/>
-      <c r="U17" s="208"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="112"/>
     </row>
     <row r="18" spans="1:22" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="150" t="s">
+      <c r="A18" s="177"/>
+      <c r="B18" s="186" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="152"/>
-      <c r="O18" s="152"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="152"/>
-      <c r="R18" s="152"/>
-      <c r="S18" s="152"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="208"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="188"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="188"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="188"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="189"/>
+      <c r="U18" s="112"/>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="119" t="s">
+      <c r="A19" s="177"/>
+      <c r="B19" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="120"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="228"/>
+      <c r="F19" s="228"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="228"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="228"/>
+      <c r="L19" s="228"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="228"/>
+      <c r="O19" s="229"/>
       <c r="P19" s="10" t="s">
         <v>31</v>
       </c>
@@ -4282,30 +4282,30 @@
       <c r="R19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="222" t="s">
+      <c r="S19" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="T19" s="223"/>
-      <c r="U19" s="208"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="112"/>
     </row>
     <row r="20" spans="1:22" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="122" t="s">
+      <c r="A20" s="177"/>
+      <c r="B20" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="126"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="232"/>
+      <c r="E20" s="231"/>
+      <c r="F20" s="231"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="231"/>
+      <c r="I20" s="231"/>
+      <c r="J20" s="231"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="231"/>
+      <c r="M20" s="233"/>
+      <c r="N20" s="233"/>
+      <c r="O20" s="234"/>
       <c r="P20" s="65"/>
       <c r="Q20" s="17" t="s">
         <v>35</v>
@@ -4315,10 +4315,10 @@
         <v>36</v>
       </c>
       <c r="T20" s="67"/>
-      <c r="U20" s="208"/>
+      <c r="U20" s="112"/>
     </row>
     <row r="21" spans="1:22" ht="81.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
@@ -4343,38 +4343,38 @@
       <c r="I21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="111" t="s">
+      <c r="J21" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="113" t="s">
+      <c r="K21" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="226" t="s">
+      <c r="L21" s="133" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="105" t="s">
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="213" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="107" t="s">
+      <c r="R21" s="215" t="s">
         <v>64</v>
       </c>
       <c r="S21" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="T21" s="109" t="s">
+      <c r="T21" s="217" t="s">
         <v>11</v>
       </c>
-      <c r="U21" s="208"/>
+      <c r="U21" s="112"/>
       <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
+      <c r="A22" s="177"/>
       <c r="B22" s="35" t="s">
         <v>72</v>
       </c>
@@ -4387,38 +4387,38 @@
       <c r="E22" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="132" t="s">
+      <c r="F22" s="238" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="133"/>
+      <c r="G22" s="239"/>
       <c r="H22" s="38" t="s">
         <v>75</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="112"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="117" t="s">
+      <c r="J22" s="220"/>
+      <c r="K22" s="222"/>
+      <c r="L22" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="118"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="106"/>
+      <c r="M22" s="226"/>
+      <c r="N22" s="226"/>
+      <c r="O22" s="226"/>
+      <c r="P22" s="214"/>
       <c r="Q22" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="108"/>
+      <c r="R22" s="216"/>
       <c r="S22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="T22" s="110"/>
-      <c r="U22" s="208"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="112"/>
       <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A23" s="140"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="69">
         <v>1</v>
       </c>
@@ -4472,10 +4472,10 @@
         <f>R23*(1-S23)</f>
         <v>2373</v>
       </c>
-      <c r="U23" s="208"/>
+      <c r="U23" s="112"/>
     </row>
     <row r="24" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A24" s="140"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="69"/>
       <c r="C24" s="92"/>
       <c r="D24" s="93"/>
@@ -4505,10 +4505,10 @@
         <f t="shared" ref="T24:T32" si="1">R24*(1-S24)</f>
         <v>0</v>
       </c>
-      <c r="U24" s="208"/>
+      <c r="U24" s="112"/>
     </row>
     <row r="25" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A25" s="140"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="69">
         <v>0</v>
       </c>
@@ -4544,10 +4544,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U25" s="208"/>
+      <c r="U25" s="112"/>
     </row>
     <row r="26" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A26" s="140"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="69">
         <v>0</v>
       </c>
@@ -4583,10 +4583,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U26" s="208"/>
+      <c r="U26" s="112"/>
     </row>
     <row r="27" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="140"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="69">
         <v>0</v>
       </c>
@@ -4622,10 +4622,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U27" s="208"/>
+      <c r="U27" s="112"/>
     </row>
     <row r="28" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A28" s="140"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="69">
         <v>0</v>
       </c>
@@ -4659,10 +4659,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U28" s="208"/>
+      <c r="U28" s="112"/>
     </row>
     <row r="29" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A29" s="140"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="69">
         <v>0</v>
       </c>
@@ -4696,10 +4696,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U29" s="208"/>
+      <c r="U29" s="112"/>
     </row>
     <row r="30" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A30" s="140"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="69">
         <v>0</v>
       </c>
@@ -4733,10 +4733,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U30" s="208"/>
+      <c r="U30" s="112"/>
     </row>
     <row r="31" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A31" s="140"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="69">
         <v>0</v>
       </c>
@@ -4772,10 +4772,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U31" s="208"/>
+      <c r="U31" s="112"/>
     </row>
     <row r="32" spans="1:22" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="70">
         <v>0</v>
       </c>
@@ -4811,16 +4811,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U32" s="208"/>
+      <c r="U32" s="112"/>
     </row>
     <row r="33" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
+      <c r="A33" s="177"/>
       <c r="B33" s="45">
         <v>0</v>
       </c>
       <c r="C33" s="46"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="143"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="179"/>
       <c r="F33" s="40"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -4843,16 +4843,16 @@
         <f>(R33-(R33*S33))*B33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="208"/>
+      <c r="U33" s="112"/>
     </row>
     <row r="34" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
+      <c r="A34" s="177"/>
       <c r="B34" s="45">
         <v>0</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -4875,16 +4875,16 @@
         <f>(R34-(R34*S34))*B34</f>
         <v>0</v>
       </c>
-      <c r="U34" s="208"/>
+      <c r="U34" s="112"/>
     </row>
     <row r="35" spans="1:21" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
+      <c r="A35" s="177"/>
       <c r="B35" s="45">
         <v>0</v>
       </c>
       <c r="C35" s="46"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -4907,67 +4907,67 @@
         <f>(R35-(R35*S35))*B35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="208"/>
+      <c r="U35" s="112"/>
     </row>
     <row r="36" spans="1:21" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="140"/>
-      <c r="B36" s="159" t="s">
+      <c r="A36" s="177"/>
+      <c r="B36" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="160"/>
-      <c r="D36" s="160"/>
-      <c r="E36" s="160"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="164" t="s">
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="164"/>
-      <c r="N36" s="164"/>
-      <c r="O36" s="164"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
       <c r="P36" s="51">
         <f>SUM(P23:P32)</f>
         <v>3390</v>
       </c>
       <c r="Q36" s="52"/>
-      <c r="R36" s="157" t="s">
+      <c r="R36" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="S36" s="158"/>
+      <c r="S36" s="153"/>
       <c r="T36" s="53">
         <f>SUM(T23:T35)</f>
         <v>2373</v>
       </c>
-      <c r="U36" s="208"/>
+      <c r="U36" s="112"/>
     </row>
     <row r="37" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="140"/>
-      <c r="B37" s="203" t="s">
+      <c r="A37" s="177"/>
+      <c r="B37" s="169" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="172" t="s">
+      <c r="D37" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="165" t="s">
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="K37" s="166"/>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="166"/>
-      <c r="O37" s="166"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
+      <c r="M37" s="197"/>
+      <c r="N37" s="197"/>
+      <c r="O37" s="197"/>
       <c r="P37" s="55">
         <f>SUM(R23:R32)</f>
         <v>3390</v>
@@ -4975,19 +4975,19 @@
       <c r="Q37" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="R37" s="157" t="s">
+      <c r="R37" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="S37" s="158"/>
+      <c r="S37" s="153"/>
       <c r="T37" s="56">
         <f>T36*0.16</f>
         <v>379.68</v>
       </c>
-      <c r="U37" s="208"/>
+      <c r="U37" s="112"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="140"/>
-      <c r="B38" s="204"/>
+      <c r="A38" s="177"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="57"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
@@ -5003,74 +5003,74 @@
       <c r="O38" s="52"/>
       <c r="P38" s="52"/>
       <c r="Q38" s="52"/>
-      <c r="R38" s="191" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="192"/>
+      <c r="R38" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" s="155"/>
       <c r="T38" s="58">
         <v>0</v>
       </c>
-      <c r="U38" s="208"/>
+      <c r="U38" s="112"/>
     </row>
     <row r="39" spans="1:21" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="140"/>
-      <c r="B39" s="204"/>
+      <c r="A39" s="177"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="202"/>
-      <c r="H39" s="202"/>
-      <c r="I39" s="202"/>
-      <c r="J39" s="202"/>
-      <c r="K39" s="205"/>
-      <c r="L39" s="206"/>
-      <c r="M39" s="206"/>
-      <c r="N39" s="206"/>
-      <c r="O39" s="206"/>
-      <c r="P39" s="206"/>
-      <c r="Q39" s="207"/>
-      <c r="R39" s="193" t="s">
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="S39" s="194"/>
+      <c r="S39" s="157"/>
       <c r="T39" s="59">
         <f>T36+T37+T38</f>
         <v>2752.68</v>
       </c>
-      <c r="U39" s="208"/>
+      <c r="U39" s="112"/>
     </row>
     <row r="40" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140"/>
-      <c r="B40" s="167" t="s">
+      <c r="A40" s="177"/>
+      <c r="B40" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="168"/>
-      <c r="D40" s="169"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="170"/>
-      <c r="P40" s="170"/>
-      <c r="Q40" s="170"/>
-      <c r="R40" s="170"/>
-      <c r="S40" s="171"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="201"/>
+      <c r="L40" s="201"/>
+      <c r="M40" s="201"/>
+      <c r="N40" s="201"/>
+      <c r="O40" s="201"/>
+      <c r="P40" s="201"/>
+      <c r="Q40" s="201"/>
+      <c r="R40" s="201"/>
+      <c r="S40" s="202"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="208"/>
+      <c r="U40" s="112"/>
     </row>
     <row r="41" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="140"/>
+      <c r="A41" s="177"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21"/>
@@ -5090,114 +5090,156 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="22"/>
-      <c r="U41" s="208"/>
+      <c r="U41" s="112"/>
     </row>
     <row r="42" spans="1:21" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="140"/>
-      <c r="B42" s="161" t="s">
+      <c r="A42" s="177"/>
+      <c r="B42" s="192" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
-      <c r="F42" s="162"/>
-      <c r="G42" s="162"/>
-      <c r="H42" s="162"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="162"/>
-      <c r="K42" s="162"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="162"/>
-      <c r="N42" s="162"/>
-      <c r="O42" s="162"/>
-      <c r="P42" s="162"/>
-      <c r="Q42" s="162"/>
-      <c r="R42" s="162"/>
-      <c r="S42" s="162"/>
-      <c r="T42" s="163"/>
-      <c r="U42" s="208"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="193"/>
+      <c r="M42" s="193"/>
+      <c r="N42" s="193"/>
+      <c r="O42" s="193"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="193"/>
+      <c r="R42" s="193"/>
+      <c r="S42" s="193"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="112"/>
     </row>
     <row r="43" spans="1:21" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="209" t="s">
+      <c r="A43" s="178"/>
+      <c r="B43" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="210"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
-      <c r="O43" s="155"/>
-      <c r="P43" s="155"/>
-      <c r="Q43" s="155"/>
-      <c r="R43" s="155"/>
-      <c r="S43" s="155"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="208"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
+      <c r="L43" s="165"/>
+      <c r="M43" s="165"/>
+      <c r="N43" s="165"/>
+      <c r="O43" s="165"/>
+      <c r="P43" s="165"/>
+      <c r="Q43" s="165"/>
+      <c r="R43" s="165"/>
+      <c r="S43" s="165"/>
+      <c r="T43" s="166"/>
+      <c r="U43" s="112"/>
     </row>
     <row r="44" spans="1:21" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
-      <c r="B44" s="209" t="s">
+      <c r="B44" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="210"/>
-      <c r="D44" s="210"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="155"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
-      <c r="O44" s="155"/>
-      <c r="P44" s="155"/>
-      <c r="Q44" s="155"/>
-      <c r="R44" s="155"/>
-      <c r="S44" s="155"/>
-      <c r="T44" s="156"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
+      <c r="L44" s="165"/>
+      <c r="M44" s="165"/>
+      <c r="N44" s="165"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="165"/>
+      <c r="R44" s="165"/>
+      <c r="S44" s="165"/>
+      <c r="T44" s="166"/>
       <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174"/>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="175"/>
-      <c r="L45" s="175"/>
-      <c r="M45" s="175"/>
-      <c r="N45" s="175"/>
-      <c r="O45" s="175"/>
-      <c r="P45" s="175"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="175"/>
-      <c r="S45" s="175"/>
-      <c r="T45" s="175"/>
-      <c r="U45" s="176"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="137"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="137"/>
+      <c r="T45" s="137"/>
+      <c r="U45" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:T12"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D6:Q6"/>
-    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="B4:T4"/>
+    <mergeCell ref="L2:T2"/>
+    <mergeCell ref="L3:T3"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B16:T16"/>
+    <mergeCell ref="B17:T17"/>
+    <mergeCell ref="B18:T18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E43:T43"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B42:T42"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:S40"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="A45:U45"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B15:T15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="D7:Q7"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="E44:T44"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="U2:U43"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
@@ -5214,54 +5256,12 @@
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="L21:O21"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A45:U45"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="B15:T15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="D7:Q7"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="E44:T44"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="A2:A43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B16:T16"/>
-    <mergeCell ref="B17:T17"/>
-    <mergeCell ref="B18:T18"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E43:T43"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="B42:T42"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B4:T4"/>
-    <mergeCell ref="L2:T2"/>
-    <mergeCell ref="L3:T3"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="E11:O11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:T12"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D6:Q6"/>
+    <mergeCell ref="P11:R11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
